--- a/config_3.2/permission_server_config.xlsx
+++ b/config_3.2/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4889" uniqueCount="2112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="2122">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9767,6 +9767,42 @@
   </si>
   <si>
     <t>cjj_csms_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_2</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_3</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_4</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_5</t>
+  </si>
+  <si>
+    <t>小游戏托管-10次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-30次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-50次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-100次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-20次</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10628,11 +10664,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q465"/>
+  <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C466" sqref="C466"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15407,6 +15443,58 @@
       </c>
       <c r="C465" s="3">
         <v>395</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B468" s="27" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C468" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B469" s="27" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C469" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B470" s="27" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C470" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B471" s="27" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C471" s="3">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -27760,11 +27848,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C933" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G962" sqref="G962"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_3.2/permission_server_config.xlsx
+++ b/config_3.2/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="2127">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9803,6 +9803,26 @@
   </si>
   <si>
     <t>小游戏托管-20次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_show_gift_bag_xyfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10666,7 +10686,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
     </sheetView>
@@ -15513,7 +15533,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D363" sqref="D363"/>
+      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27824,16 +27844,38 @@
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
-      <c r="A365" s="17"/>
-      <c r="B365" s="17"/>
-      <c r="C365" s="16"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17"/>
-      <c r="G365" s="17"/>
-      <c r="J365" s="17"/>
-      <c r="K365" s="17"/>
-      <c r="L365" s="16"/>
+      <c r="A365" s="16">
+        <v>364</v>
+      </c>
+      <c r="B365" s="28">
+        <v>1</v>
+      </c>
+      <c r="C365" s="56" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D365" s="29" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E365" s="28"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28">
+        <v>396</v>
+      </c>
+      <c r="H365" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I365" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J365" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="K365" s="29">
+        <v>1612828800</v>
+      </c>
+      <c r="L365" s="29" t="s">
+        <v>2124</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
@@ -27848,11 +27890,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C939" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31:D31"/>
+      <selection pane="bottomRight" activeCell="D972" sqref="D972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50888,14 +50930,50 @@
       </c>
     </row>
     <row r="963" spans="1:7" s="8" customFormat="1">
-      <c r="C963" s="10"/>
-      <c r="D963" s="10"/>
-      <c r="G963" s="10"/>
+      <c r="A963" s="8">
+        <v>962</v>
+      </c>
+      <c r="B963" s="14">
+        <v>396</v>
+      </c>
+      <c r="C963" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D963" s="80" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E963" s="14">
+        <v>2</v>
+      </c>
+      <c r="F963" s="14">
+        <v>1</v>
+      </c>
+      <c r="G963" s="14" t="s">
+        <v>2125</v>
+      </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
-      <c r="C964" s="10"/>
-      <c r="D964" s="10"/>
-      <c r="G964" s="10"/>
+      <c r="A964" s="8">
+        <v>963</v>
+      </c>
+      <c r="B964" s="14">
+        <v>396</v>
+      </c>
+      <c r="C964" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D964" s="80" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E964" s="14">
+        <v>2</v>
+      </c>
+      <c r="F964" s="14">
+        <v>2</v>
+      </c>
+      <c r="G964" s="15" t="s">
+        <v>2126</v>
+      </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1"/>
     <row r="966" spans="1:7" s="8" customFormat="1">

--- a/config_3.2/permission_server_config.xlsx
+++ b/config_3.2/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9551,10 +9551,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_free_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>发财礼包--免费、小额、新人</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9563,10 +9559,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>发财礼包--V1V7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9575,10 +9567,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>发财礼包--V8V12</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9823,6 +9811,18 @@
   </si>
   <si>
     <t>冲金鸡cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15445,10 +15445,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15456,10 +15456,10 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="27" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B465" s="27" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C465" s="3">
         <v>395</v>
@@ -15467,18 +15467,18 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="C468" s="3">
         <v>22</v>
@@ -15486,10 +15486,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="C469" s="3">
         <v>23</v>
@@ -15497,10 +15497,10 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="3" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B470" s="27" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C470" s="3">
         <v>24</v>
@@ -15508,10 +15508,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C471" s="3">
         <v>26</v>
@@ -15529,11 +15529,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
+      <selection pane="bottomRight" activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25434,7 +25434,7 @@
         <v>1645</v>
       </c>
       <c r="D291" s="105" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -26400,7 +26400,7 @@
         <v>1726</v>
       </c>
       <c r="D321" s="104" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="E321" s="105"/>
       <c r="F321" s="105"/>
@@ -27276,7 +27276,7 @@
         <v>1995</v>
       </c>
       <c r="D348" s="104" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27330,7 +27330,7 @@
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27364,7 +27364,7 @@
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27375,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D351" s="16" t="s">
         <v>2022</v>
@@ -27398,7 +27398,7 @@
         <v>1610380800</v>
       </c>
       <c r="L351" s="16" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27432,7 +27432,7 @@
         <v>1610380800</v>
       </c>
       <c r="L352" s="16" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27477,10 +27477,10 @@
         <v>1</v>
       </c>
       <c r="C354" s="16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D354" s="16" t="s">
         <v>2057</v>
-      </c>
-      <c r="D354" s="16" t="s">
-        <v>2058</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27500,7 +27500,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27511,10 +27511,10 @@
         <v>1</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2060</v>
+        <v>2125</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27534,7 +27534,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27545,10 +27545,10 @@
         <v>1</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2063</v>
+        <v>2126</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27568,7 +27568,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27579,10 +27579,10 @@
         <v>1</v>
       </c>
       <c r="C357" s="109" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27613,10 +27613,10 @@
         <v>1</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27636,7 +27636,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27647,10 +27647,10 @@
         <v>1</v>
       </c>
       <c r="C359" s="111" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D359" s="16" t="s">
         <v>2088</v>
-      </c>
-      <c r="D359" s="16" t="s">
-        <v>2091</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27670,7 +27670,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27681,10 +27681,10 @@
         <v>1</v>
       </c>
       <c r="C360" s="111" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D360" s="16" t="s">
         <v>2089</v>
-      </c>
-      <c r="D360" s="16" t="s">
-        <v>2092</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27704,7 +27704,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27715,10 +27715,10 @@
         <v>1</v>
       </c>
       <c r="C361" s="111" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D361" s="16" t="s">
         <v>2090</v>
-      </c>
-      <c r="D361" s="16" t="s">
-        <v>2093</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27738,7 +27738,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="113" customFormat="1">
@@ -27749,10 +27749,10 @@
         <v>1</v>
       </c>
       <c r="C362" s="112" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D362" s="66" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="E362" s="66"/>
       <c r="F362" s="66"/>
@@ -27783,10 +27783,10 @@
         <v>1</v>
       </c>
       <c r="C363" s="56" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D363" s="29" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
@@ -27806,7 +27806,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="29" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27817,10 +27817,10 @@
         <v>1</v>
       </c>
       <c r="C364" s="56" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D364" s="29" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
@@ -27840,7 +27840,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="29" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27851,10 +27851,10 @@
         <v>1</v>
       </c>
       <c r="C365" s="56" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="D365" s="29" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
@@ -27874,7 +27874,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="29" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
   </sheetData>
@@ -27890,7 +27890,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C939" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -49692,7 +49692,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="H938" s="8"/>
     </row>
@@ -50390,7 +50390,7 @@
         <v>3</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50414,7 +50414,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50438,7 +50438,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50462,7 +50462,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50486,7 +50486,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50510,7 +50510,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50534,7 +50534,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -50558,7 +50558,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="947" spans="1:8" s="8" customFormat="1">
@@ -50569,7 +50569,7 @@
         <v>386</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D947" s="10">
         <v>1</v>
@@ -50581,7 +50581,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -50604,7 +50604,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="9" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="949" spans="1:8" s="8" customFormat="1">
@@ -50615,10 +50615,10 @@
         <v>388</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D949" s="10" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="E949" s="8">
         <v>5</v>
@@ -50638,10 +50638,10 @@
         <v>388</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="E950" s="8">
         <v>2</v>
@@ -50696,7 +50696,7 @@
         <v>2</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="953" spans="1:8" s="8" customFormat="1">
@@ -50719,7 +50719,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -50742,7 +50742,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -50765,7 +50765,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -50788,7 +50788,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -50811,7 +50811,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -50834,7 +50834,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="20" customFormat="1">
@@ -50857,7 +50857,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="20" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -50880,7 +50880,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="15" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="961" spans="1:7" s="8" customFormat="1">
@@ -50903,7 +50903,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="15" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="962" spans="1:7" s="8" customFormat="1">
@@ -50926,7 +50926,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="15" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="8" customFormat="1">
@@ -50949,7 +50949,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="14" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
@@ -50972,7 +50972,7 @@
         <v>2</v>
       </c>
       <c r="G964" s="15" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1"/>

--- a/config_3.2/permission_server_config.xlsx
+++ b/config_3.2/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="2125">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9747,14 +9747,6 @@
   </si>
   <si>
     <t>是cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式改版</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_csms_new</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10684,11 +10676,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q471"/>
+  <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
+      <selection pane="bottomLeft" activeCell="B461" sqref="B461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15455,22 +15447,33 @@
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" s="27" t="s">
+      <c r="A465" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="B465" s="27" t="s">
-        <v>2107</v>
-      </c>
-      <c r="C465" s="3">
-        <v>395</v>
+      <c r="B466" s="27" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C466" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
         <v>2109</v>
       </c>
-      <c r="B467" s="3" t="s">
-        <v>2114</v>
+      <c r="B467" s="27" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C467" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -15478,10 +15481,10 @@
         <v>2110</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="C468" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -15492,28 +15495,6 @@
         <v>2115</v>
       </c>
       <c r="C469" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="3" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B470" s="27" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C470" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C471" s="3">
         <v>26</v>
       </c>
     </row>
@@ -15529,7 +15510,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27477,7 +27458,7 @@
         <v>1</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D354" s="16" t="s">
         <v>2057</v>
@@ -27511,7 +27492,7 @@
         <v>1</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D355" s="16" t="s">
         <v>2059</v>
@@ -27545,7 +27526,7 @@
         <v>1</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D356" s="16" t="s">
         <v>2061</v>
@@ -27851,10 +27832,10 @@
         <v>1</v>
       </c>
       <c r="C365" s="56" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D365" s="29" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
@@ -27874,7 +27855,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="29" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -50949,7 +50930,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="14" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
@@ -50972,7 +50953,7 @@
         <v>2</v>
       </c>
       <c r="G964" s="15" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1"/>

--- a/config_3.2/permission_server_config.xlsx
+++ b/config_3.2/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="2120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="2121">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9355,10 +9355,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐福利（欢乐捕鱼）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐福利（冲金鸡）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9805,6 +9801,14 @@
   </si>
   <si>
     <t>暂时不用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（欢乐捕鱼）--非cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是CPS渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10668,7 +10672,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
@@ -11689,7 +11693,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11704,7 +11708,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11719,7 +11723,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11734,7 +11738,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11748,7 +11752,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11762,7 +11766,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11777,7 +11781,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11792,7 +11796,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11806,7 +11810,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11824,7 +11828,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -15269,10 +15273,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15339,10 +15343,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2014</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2015</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15350,10 +15354,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2020</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2021</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15361,10 +15365,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15372,10 +15376,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15383,10 +15387,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15394,10 +15398,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2030</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2031</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15405,10 +15409,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2045</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2046</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15416,10 +15420,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2057</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2058</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15427,10 +15431,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2059</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2060</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15438,18 +15442,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15457,10 +15461,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15468,10 +15472,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15479,10 +15483,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15501,10 +15505,10 @@
   <dimension ref="A1:O365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D341" sqref="D341"/>
+      <selection pane="bottomRight" activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25405,7 +25409,7 @@
         <v>1635</v>
       </c>
       <c r="D291" s="105" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -26371,7 +26375,7 @@
         <v>1716</v>
       </c>
       <c r="D321" s="104" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E321" s="105"/>
       <c r="F321" s="105"/>
@@ -27247,7 +27251,7 @@
         <v>1985</v>
       </c>
       <c r="D348" s="104" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27301,7 +27305,7 @@
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27335,7 +27339,7 @@
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27346,10 +27350,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>2012</v>
+        <v>2119</v>
       </c>
       <c r="E351" s="16"/>
       <c r="F351" s="16"/>
@@ -27369,7 +27373,7 @@
         <v>1610380800</v>
       </c>
       <c r="L351" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27383,7 +27387,7 @@
         <v>2011</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E352" s="16"/>
       <c r="F352" s="16"/>
@@ -27403,7 +27407,7 @@
         <v>1610380800</v>
       </c>
       <c r="L352" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27414,10 +27418,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="109" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27448,10 +27452,10 @@
         <v>1</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27471,7 +27475,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27482,10 +27486,10 @@
         <v>1</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27505,7 +27509,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27516,10 +27520,10 @@
         <v>1</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27539,7 +27543,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27550,10 +27554,10 @@
         <v>1</v>
       </c>
       <c r="C357" s="109" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27584,10 +27588,10 @@
         <v>1</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>2071</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>2072</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27607,7 +27611,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27618,10 +27622,10 @@
         <v>1</v>
       </c>
       <c r="C359" s="111" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27641,7 +27645,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27652,10 +27656,10 @@
         <v>1</v>
       </c>
       <c r="C360" s="111" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27675,7 +27679,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27686,10 +27690,10 @@
         <v>1</v>
       </c>
       <c r="C361" s="111" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27709,7 +27713,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="113" customFormat="1">
@@ -27720,10 +27724,10 @@
         <v>1</v>
       </c>
       <c r="C362" s="112" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D362" s="66" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E362" s="66"/>
       <c r="F362" s="66"/>
@@ -27754,10 +27758,10 @@
         <v>1</v>
       </c>
       <c r="C363" s="56" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D363" s="29" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
@@ -27777,7 +27781,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="29" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27788,10 +27792,10 @@
         <v>1</v>
       </c>
       <c r="C364" s="56" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D364" s="29" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
@@ -27811,7 +27815,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="29" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27822,10 +27826,10 @@
         <v>1</v>
       </c>
       <c r="C365" s="56" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D365" s="29" t="s">
         <v>2107</v>
-      </c>
-      <c r="D365" s="29" t="s">
-        <v>2108</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
@@ -27845,7 +27849,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="29" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
   </sheetData>
@@ -27859,13 +27863,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C904" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="G924" sqref="G924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49663,7 +49667,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -49971,69 +49975,70 @@
         <v>922</v>
       </c>
       <c r="B923" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C923" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="D923" s="10" t="s">
-        <v>1961</v>
+      <c r="D923" s="8" t="s">
+        <v>1658</v>
       </c>
       <c r="E923" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F923" s="8">
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>1718</v>
+        <v>2120</v>
       </c>
       <c r="H923" s="8"/>
     </row>
-    <row r="924" spans="1:8" s="8" customFormat="1">
+    <row r="924" spans="1:8">
       <c r="A924" s="8">
         <v>923</v>
       </c>
       <c r="B924" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>2016</v>
+        <v>1143</v>
       </c>
       <c r="D924" s="10" t="s">
-        <v>1906</v>
+        <v>1961</v>
       </c>
       <c r="E924" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F924" s="8">
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>1963</v>
-      </c>
+        <v>1718</v>
+      </c>
+      <c r="H924" s="8"/>
     </row>
     <row r="925" spans="1:8" s="8" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="D925" s="10" t="s">
-        <v>1601</v>
+        <v>1906</v>
       </c>
       <c r="E925" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F925" s="8">
         <v>1</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>2026</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="926" spans="1:8" s="8" customFormat="1">
@@ -50047,16 +50052,16 @@
         <v>1990</v>
       </c>
       <c r="D926" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E926" s="8">
+        <v>2</v>
+      </c>
+      <c r="F926" s="8">
+        <v>1</v>
+      </c>
+      <c r="G926" s="10" t="s">
         <v>2025</v>
-      </c>
-      <c r="E926" s="8">
-        <v>2</v>
-      </c>
-      <c r="F926" s="8">
-        <v>2</v>
-      </c>
-      <c r="G926" s="10" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="927" spans="1:8" s="8" customFormat="1">
@@ -50064,22 +50069,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C927" s="10" t="s">
         <v>1990</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1821</v>
+        <v>2024</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="928" spans="1:8" s="8" customFormat="1">
@@ -50087,13 +50092,13 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C928" s="10" t="s">
         <v>1990</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1903</v>
+        <v>1821</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
@@ -50110,13 +50115,13 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C929" s="10" t="s">
         <v>1990</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1927</v>
+        <v>1903</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50133,13 +50138,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1144</v>
+        <v>1990</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1961</v>
+        <v>1927</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50148,7 +50153,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2008</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50159,10 +50164,10 @@
         <v>379</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D931" s="10">
-        <v>0</v>
+        <v>1144</v>
+      </c>
+      <c r="D931" s="10" t="s">
+        <v>1961</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50171,34 +50176,33 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="932" spans="1:8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" s="8" customFormat="1">
       <c r="A932" s="8">
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>380</v>
-      </c>
-      <c r="C932" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D932" s="8" t="s">
-        <v>1658</v>
+        <v>379</v>
+      </c>
+      <c r="C932" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D932" s="10">
+        <v>0</v>
       </c>
       <c r="E932" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F932" s="8">
         <v>1</v>
       </c>
-      <c r="G932" s="8" t="s">
-        <v>1986</v>
-      </c>
-      <c r="H932" s="8"/>
-    </row>
-    <row r="933" spans="1:8" ht="16.5">
+      <c r="G932" s="10" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
       <c r="A933" s="8">
         <v>932</v>
       </c>
@@ -50206,23 +50210,23 @@
         <v>380</v>
       </c>
       <c r="C933" s="8" t="s">
-        <v>2037</v>
-      </c>
-      <c r="D933" s="107" t="s">
-        <v>2038</v>
+        <v>1033</v>
+      </c>
+      <c r="D933" s="8" t="s">
+        <v>1658</v>
       </c>
       <c r="E933" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
       <c r="G933" s="8" t="s">
-        <v>2039</v>
+        <v>1986</v>
       </c>
       <c r="H933" s="8"/>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" ht="16.5">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -50230,19 +50234,19 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D934" s="8" t="s">
-        <v>1908</v>
+        <v>2036</v>
+      </c>
+      <c r="D934" s="107" t="s">
+        <v>2037</v>
       </c>
       <c r="E934" s="8">
         <v>2</v>
       </c>
       <c r="F934" s="8">
-        <v>2</v>
-      </c>
-      <c r="G934" s="10" t="s">
-        <v>2040</v>
+        <v>1</v>
+      </c>
+      <c r="G934" s="8" t="s">
+        <v>2038</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50254,10 +50258,10 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>2041</v>
-      </c>
-      <c r="D935" s="10" t="s">
-        <v>2042</v>
+        <v>1033</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>1908</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50265,46 +50269,47 @@
       <c r="F935" s="8">
         <v>2</v>
       </c>
-      <c r="G935" s="8" t="s">
-        <v>2043</v>
+      <c r="G935" s="10" t="s">
+        <v>2039</v>
       </c>
       <c r="H935" s="8"/>
     </row>
-    <row r="936" spans="1:8" s="8" customFormat="1">
+    <row r="936" spans="1:8">
       <c r="A936" s="8">
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>381</v>
-      </c>
-      <c r="C936" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D936" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C936" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D936" s="10" t="s">
+        <v>2041</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
       </c>
       <c r="F936" s="8">
-        <v>1</v>
-      </c>
-      <c r="G936" s="10" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="937" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G936" s="8" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H936" s="8"/>
+    </row>
+    <row r="937" spans="1:8" s="8" customFormat="1">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D937" s="10" t="s">
-        <v>1213</v>
+        <v>1118</v>
+      </c>
+      <c r="D937" s="10">
+        <v>0</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -50313,9 +50318,8 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H937" s="8"/>
+        <v>2034</v>
+      </c>
     </row>
     <row r="938" spans="1:8">
       <c r="A938" s="8">
@@ -50325,19 +50329,19 @@
         <v>382</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>853</v>
+        <v>1053</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>858</v>
+        <v>1213</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
       </c>
       <c r="F938" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2052</v>
+        <v>1177</v>
       </c>
       <c r="H938" s="8"/>
     </row>
@@ -50352,16 +50356,16 @@
         <v>853</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
       </c>
       <c r="F939" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50370,22 +50374,22 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D940" s="8">
-        <v>1</v>
+        <v>853</v>
+      </c>
+      <c r="D940" s="10" t="s">
+        <v>862</v>
       </c>
       <c r="E940" s="8">
+        <v>2</v>
+      </c>
+      <c r="F940" s="8">
         <v>3</v>
       </c>
-      <c r="F940" s="8">
-        <v>1</v>
-      </c>
       <c r="G940" s="10" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50400,16 +50404,16 @@
         <v>1118</v>
       </c>
       <c r="D941" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E941" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F941" s="8">
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50420,20 +50424,20 @@
       <c r="B942" s="8">
         <v>383</v>
       </c>
-      <c r="C942" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D942" s="8" t="s">
-        <v>854</v>
+      <c r="C942" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D942" s="8">
+        <v>7</v>
       </c>
       <c r="E942" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50442,22 +50446,22 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>384</v>
-      </c>
-      <c r="C943" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D943" s="8">
-        <v>8</v>
+        <v>383</v>
+      </c>
+      <c r="C943" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D943" s="8" t="s">
+        <v>854</v>
       </c>
       <c r="E943" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50472,16 +50476,16 @@
         <v>1118</v>
       </c>
       <c r="D944" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E944" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F944" s="8">
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50492,113 +50496,114 @@
       <c r="B945" s="8">
         <v>384</v>
       </c>
-      <c r="C945" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D945" s="8" t="s">
-        <v>854</v>
+      <c r="C945" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D945" s="8">
+        <v>12</v>
       </c>
       <c r="E945" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F945" s="8">
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8" s="8" customFormat="1">
+    <row r="946" spans="1:8">
       <c r="A946" s="8">
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>385</v>
-      </c>
-      <c r="C946" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D946" s="10">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C946" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D946" s="8" t="s">
+        <v>854</v>
       </c>
       <c r="E946" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2061</v>
-      </c>
+        <v>2055</v>
+      </c>
+      <c r="H946" s="8"/>
     </row>
     <row r="947" spans="1:8" s="8" customFormat="1">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>2062</v>
+        <v>1118</v>
       </c>
       <c r="D947" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E947" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F947" s="8">
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="948" spans="1:8">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" s="8" customFormat="1">
       <c r="A948" s="8">
         <v>947</v>
       </c>
-      <c r="B948" s="9">
-        <v>387</v>
-      </c>
-      <c r="C948" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D948" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="E948" s="9">
-        <v>5</v>
-      </c>
-      <c r="F948" s="9">
-        <v>1</v>
-      </c>
-      <c r="G948" s="9" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8" s="8" customFormat="1">
+      <c r="B948" s="8">
+        <v>386</v>
+      </c>
+      <c r="C948" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D948" s="10">
+        <v>1</v>
+      </c>
+      <c r="E948" s="8">
+        <v>3</v>
+      </c>
+      <c r="F948" s="8">
+        <v>1</v>
+      </c>
+      <c r="G948" s="10" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="8">
-        <v>388</v>
-      </c>
-      <c r="C949" s="10" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D949" s="10" t="s">
-        <v>2083</v>
-      </c>
-      <c r="E949" s="8">
+      <c r="B949" s="9">
+        <v>387</v>
+      </c>
+      <c r="C949" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D949" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="E949" s="9">
         <v>5</v>
       </c>
-      <c r="F949" s="8">
-        <v>1</v>
-      </c>
-      <c r="G949" s="10" t="s">
-        <v>912</v>
+      <c r="F949" s="9">
+        <v>1</v>
+      </c>
+      <c r="G949" s="9" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="950" spans="1:8" s="8" customFormat="1">
@@ -50609,19 +50614,19 @@
         <v>388</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E950" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F950" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>1177</v>
+        <v>912</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -50629,19 +50634,19 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>1053</v>
+        <v>2073</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>1213</v>
+        <v>2082</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
       </c>
       <c r="F951" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G951" s="10" t="s">
         <v>1177</v>
@@ -50655,19 +50660,19 @@
         <v>389</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D952" s="8">
-        <v>3</v>
+        <v>1053</v>
+      </c>
+      <c r="D952" s="10" t="s">
+        <v>1213</v>
       </c>
       <c r="E952" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F952" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>2081</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="953" spans="1:8" s="8" customFormat="1">
@@ -50675,22 +50680,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C953" s="10" t="s">
         <v>1118</v>
       </c>
       <c r="D953" s="8">
+        <v>3</v>
+      </c>
+      <c r="E953" s="8">
         <v>4</v>
       </c>
-      <c r="E953" s="8">
-        <v>3</v>
-      </c>
       <c r="F953" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -50704,16 +50709,16 @@
         <v>1118</v>
       </c>
       <c r="D954" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E954" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2055</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -50723,20 +50728,20 @@
       <c r="B955" s="8">
         <v>390</v>
       </c>
-      <c r="C955" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D955" s="8" t="s">
-        <v>854</v>
+      <c r="C955" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D955" s="8">
+        <v>7</v>
       </c>
       <c r="E955" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -50744,22 +50749,22 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>391</v>
-      </c>
-      <c r="C956" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D956" s="8">
-        <v>8</v>
+        <v>390</v>
+      </c>
+      <c r="C956" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D956" s="8" t="s">
+        <v>854</v>
       </c>
       <c r="E956" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -50773,16 +50778,16 @@
         <v>1118</v>
       </c>
       <c r="D957" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E957" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -50792,66 +50797,66 @@
       <c r="B958" s="8">
         <v>391</v>
       </c>
-      <c r="C958" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D958" s="8" t="s">
-        <v>854</v>
+      <c r="C958" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D958" s="8">
+        <v>12</v>
       </c>
       <c r="E958" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="959" spans="1:8" s="20" customFormat="1">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" s="8" customFormat="1">
       <c r="A959" s="8">
         <v>958</v>
       </c>
-      <c r="B959" s="20">
-        <v>392</v>
-      </c>
-      <c r="C959" s="20" t="s">
+      <c r="B959" s="8">
+        <v>391</v>
+      </c>
+      <c r="C959" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="D959" s="20" t="s">
+      <c r="D959" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="E959" s="20">
+      <c r="E959" s="8">
         <v>5</v>
       </c>
-      <c r="F959" s="20">
-        <v>1</v>
-      </c>
-      <c r="G959" s="20" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="960" spans="1:8" s="8" customFormat="1">
+      <c r="F959" s="8">
+        <v>1</v>
+      </c>
+      <c r="G959" s="10" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" s="20" customFormat="1">
       <c r="A960" s="8">
         <v>959</v>
       </c>
-      <c r="B960" s="14">
-        <v>393</v>
-      </c>
-      <c r="C960" s="15" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D960" s="15" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E960" s="14">
+      <c r="B960" s="20">
+        <v>392</v>
+      </c>
+      <c r="C960" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="D960" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="E960" s="20">
         <v>5</v>
       </c>
-      <c r="F960" s="14">
-        <v>1</v>
-      </c>
-      <c r="G960" s="15" t="s">
-        <v>2095</v>
+      <c r="F960" s="20">
+        <v>1</v>
+      </c>
+      <c r="G960" s="20" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="961" spans="1:7" s="8" customFormat="1">
@@ -50859,7 +50864,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="14">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C961" s="15" t="s">
         <v>1144</v>
@@ -50868,13 +50873,13 @@
         <v>1961</v>
       </c>
       <c r="E961" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F961" s="14">
         <v>1</v>
       </c>
       <c r="G961" s="15" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="962" spans="1:7" s="8" customFormat="1">
@@ -50882,10 +50887,10 @@
         <v>961</v>
       </c>
       <c r="B962" s="14">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C962" s="15" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D962" s="15" t="s">
         <v>1961</v>
@@ -50897,7 +50902,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="15" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="8" customFormat="1">
@@ -50905,13 +50910,13 @@
         <v>962</v>
       </c>
       <c r="B963" s="14">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C963" s="15" t="s">
         <v>1143</v>
       </c>
-      <c r="D963" s="80" t="s">
-        <v>1819</v>
+      <c r="D963" s="15" t="s">
+        <v>1961</v>
       </c>
       <c r="E963" s="14">
         <v>2</v>
@@ -50919,8 +50924,8 @@
       <c r="F963" s="14">
         <v>1</v>
       </c>
-      <c r="G963" s="14" t="s">
-        <v>2110</v>
+      <c r="G963" s="15" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
@@ -50934,24 +50939,42 @@
         <v>1143</v>
       </c>
       <c r="D964" s="80" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E964" s="14">
+        <v>2</v>
+      </c>
+      <c r="F964" s="14">
+        <v>1</v>
+      </c>
+      <c r="G964" s="14" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" s="8" customFormat="1">
+      <c r="A965" s="8">
+        <v>964</v>
+      </c>
+      <c r="B965" s="14">
+        <v>396</v>
+      </c>
+      <c r="C965" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D965" s="80" t="s">
         <v>1918</v>
       </c>
-      <c r="E964" s="14">
-        <v>2</v>
-      </c>
-      <c r="F964" s="14">
-        <v>2</v>
-      </c>
-      <c r="G964" s="15" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7" s="8" customFormat="1"/>
-    <row r="966" spans="1:7" s="8" customFormat="1">
-      <c r="C966" s="10"/>
-      <c r="D966" s="10"/>
-      <c r="G966" s="10"/>
-    </row>
+      <c r="E965" s="14">
+        <v>2</v>
+      </c>
+      <c r="F965" s="14">
+        <v>2</v>
+      </c>
+      <c r="G965" s="15" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" s="8" customFormat="1"/>
     <row r="967" spans="1:7" s="8" customFormat="1">
       <c r="C967" s="10"/>
       <c r="D967" s="10"/>
@@ -50962,12 +50985,12 @@
       <c r="D968" s="10"/>
       <c r="G968" s="10"/>
     </row>
-    <row r="969" spans="1:7" s="8" customFormat="1"/>
-    <row r="970" spans="1:7" s="8" customFormat="1">
-      <c r="C970" s="10"/>
-      <c r="D970" s="10"/>
-      <c r="G970" s="10"/>
-    </row>
+    <row r="969" spans="1:7" s="8" customFormat="1">
+      <c r="C969" s="10"/>
+      <c r="D969" s="10"/>
+      <c r="G969" s="10"/>
+    </row>
+    <row r="970" spans="1:7" s="8" customFormat="1"/>
     <row r="971" spans="1:7" s="8" customFormat="1">
       <c r="C971" s="10"/>
       <c r="D971" s="10"/>
@@ -50978,12 +51001,12 @@
       <c r="D972" s="10"/>
       <c r="G972" s="10"/>
     </row>
-    <row r="973" spans="1:7" s="8" customFormat="1"/>
-    <row r="974" spans="1:7" s="8" customFormat="1">
-      <c r="C974" s="10"/>
-      <c r="D974" s="10"/>
-      <c r="G974" s="10"/>
-    </row>
+    <row r="973" spans="1:7" s="8" customFormat="1">
+      <c r="C973" s="10"/>
+      <c r="D973" s="10"/>
+      <c r="G973" s="10"/>
+    </row>
+    <row r="974" spans="1:7" s="8" customFormat="1"/>
     <row r="975" spans="1:7" s="8" customFormat="1">
       <c r="C975" s="10"/>
       <c r="D975" s="10"/>
@@ -50993,6 +51016,11 @@
       <c r="C976" s="10"/>
       <c r="D976" s="10"/>
       <c r="G976" s="10"/>
+    </row>
+    <row r="977" spans="3:7" s="8" customFormat="1">
+      <c r="C977" s="10"/>
+      <c r="D977" s="10"/>
+      <c r="G977" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
